--- a/maps/level2.xlsx
+++ b/maps/level2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14880" windowHeight="5640"/>
+    <workbookView windowWidth="14880" windowHeight="7520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -32,6 +32,65 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -52,93 +111,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,6 +142,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -175,7 +159,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,25 +196,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,157 +358,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,39 +387,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -438,17 +405,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,13 +473,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,10 +495,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -507,133 +507,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,7 +1006,7 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.65" customHeight="1"/>
@@ -1054,34 +1054,34 @@
         <v>2</v>
       </c>
       <c r="E2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O2" s="2">
         <v>3</v>
@@ -1093,19 +1093,19 @@
         <v>3</v>
       </c>
       <c r="R2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S2" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T2" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U2" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W2" s="2">
         <v>2</v>
@@ -1130,22 +1130,22 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -1169,10 +1169,10 @@
         <v>0</v>
       </c>
       <c r="R3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="2">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1245,19 +1245,19 @@
         <v>0</v>
       </c>
       <c r="R4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="2">
         <v>1</v>
       </c>
       <c r="T4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="2">
         <v>0</v>
@@ -1273,122 +1273,122 @@
     <row r="5" customHeight="1" spans="1:26">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="1"/>
     </row>
     <row r="6" customHeight="1" spans="1:26">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2">
         <v>0</v>
@@ -1409,47 +1409,47 @@
         <v>0</v>
       </c>
       <c r="V6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W6" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X6" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y6" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z6" s="1"/>
     </row>
     <row r="7" customHeight="1" spans="1:26">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -1485,65 +1485,65 @@
         <v>0</v>
       </c>
       <c r="V7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W7" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X7" s="2">
         <v>3</v>
       </c>
       <c r="Y7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z7" s="1"/>
     </row>
     <row r="8" customHeight="1" spans="1:26">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
         <v>1</v>
@@ -1552,22 +1552,22 @@
         <v>1</v>
       </c>
       <c r="S8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="2">
         <v>1</v>
@@ -1577,19 +1577,19 @@
     <row r="9" customHeight="1" spans="1:26">
       <c r="A9" s="1"/>
       <c r="B9" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -1616,56 +1616,56 @@
         <v>0</v>
       </c>
       <c r="O9" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V9" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W9" s="2">
         <v>0</v>
       </c>
       <c r="X9" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1"/>
     </row>
     <row r="10" customHeight="1" spans="1:26">
       <c r="A10" s="1"/>
       <c r="B10" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
@@ -1692,37 +1692,37 @@
         <v>0</v>
       </c>
       <c r="O10" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V10" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W10" s="2">
         <v>0</v>
       </c>
       <c r="X10" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1"/>
     </row>
@@ -1735,10 +1735,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
@@ -1759,13 +1759,13 @@
         <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
         <v>1</v>
@@ -1774,10 +1774,10 @@
         <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S11" s="2">
         <v>2</v>
@@ -1786,38 +1786,38 @@
         <v>2</v>
       </c>
       <c r="U11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" s="1"/>
     </row>
     <row r="12" customHeight="1" spans="1:26">
       <c r="A12" s="1"/>
       <c r="B12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
@@ -1868,26 +1868,26 @@
         <v>0</v>
       </c>
       <c r="W12" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X12" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y12" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z12" s="1"/>
     </row>
     <row r="13" customHeight="1" spans="1:26">
       <c r="A13" s="1"/>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
@@ -1929,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="R13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="2">
         <v>1</v>
@@ -1944,38 +1944,38 @@
         <v>0</v>
       </c>
       <c r="W13" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z13" s="1"/>
     </row>
     <row r="14" customHeight="1" spans="1:26">
       <c r="A14" s="1"/>
       <c r="B14" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
       </c>
       <c r="E14" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
       </c>
       <c r="H14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
@@ -1987,19 +1987,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -2011,47 +2011,47 @@
         <v>0</v>
       </c>
       <c r="T14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V14" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W14" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X14" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z14" s="1"/>
     </row>
     <row r="15" customHeight="1" spans="1:26">
       <c r="A15" s="1"/>
       <c r="B15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2">
         <v>3</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
@@ -2063,19 +2063,19 @@
         <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -2087,22 +2087,22 @@
         <v>0</v>
       </c>
       <c r="T15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V15" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W15" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z15" s="1"/>
     </row>
